--- a/data/samples/Mapping_file.xlsx
+++ b/data/samples/Mapping_file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e70621f3a8777e7d/Documents/Code/Python/FhirFinder/data/samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{3E4B8D5B-014D-41F2-9DED-F4F3B111667E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E5629D9-06BE-4FC9-9447-601E50889C48}"/>
+  <xr:revisionPtr revIDLastSave="311" documentId="8_{3E4B8D5B-014D-41F2-9DED-F4F3B111667E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{997C7F38-E22F-4252-AEDB-2D353014665A}"/>
   <bookViews>
-    <workbookView xWindow="18390" yWindow="1140" windowWidth="21540" windowHeight="13500" xr2:uid="{F9E2380A-1875-4E50-88E5-27B7AC8EB0CA}"/>
+    <workbookView xWindow="9510" yWindow="2595" windowWidth="26610" windowHeight="13500" xr2:uid="{F9E2380A-1875-4E50-88E5-27B7AC8EB0CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="216">
   <si>
     <t>Patient</t>
   </si>
@@ -579,6 +579,117 @@
   </si>
   <si>
     <t>v5.0.0</t>
+  </si>
+  <si>
+    <t>This field is where the actual value or result of the observation is placed. It's the core piece of information that a receiving system needs to understand</t>
+  </si>
+  <si>
+    <t>This field within the OBX segment is specifically designated for the Observation Identifier. It's how the system identifies what is being measured or observed. </t>
+  </si>
+  <si>
+    <t>refers to a specific field within the HL7 (Health Level Seven) standard's Patient Identification Segment (PID). This field is designated for Administrative Sex and contains the patient's sex.</t>
+  </si>
+  <si>
+    <t>Patient Date/Time of Birth field within the Patient Identification (PID) segment</t>
+  </si>
+  <si>
+    <t>This field contains the list of identifiers (one or more) used by the healthcare facility to uniquely identify a patient (e.g., medical record number, billing number, birth registry, national unique individual identifier, etc.).</t>
+  </si>
+  <si>
+    <t>This field contains the address of the patient. Multiple addresses for the same person may be sent</t>
+  </si>
+  <si>
+    <t>This field contains the patients marital (civil) status. Refer to User-defined Table 0002 - Marital status for suggested values</t>
+  </si>
+  <si>
+    <t>Contact Role</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Phone Number, Business Phone Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Organization Name ,	Contact Person's Name, 	Contact Person's Telephone NumbeR, Contact Person's Address, Contact Person's Telecommunication Information</t>
+  </si>
+  <si>
+    <t>Administrative Sex</t>
+  </si>
+  <si>
+    <t>Administered Code</t>
+  </si>
+  <si>
+    <t>Date/Time Start of Administration</t>
+  </si>
+  <si>
+    <t>Administration Notes</t>
+  </si>
+  <si>
+    <t>Administration Sub-ID Counter</t>
+  </si>
+  <si>
+    <t>Give Sub-ID Counter</t>
+  </si>
+  <si>
+    <t>Substance Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Substance Lot Number</t>
+  </si>
+  <si>
+    <t>Substance Expiration Date</t>
+  </si>
+  <si>
+    <t>Administered Amount, Administered Units</t>
+  </si>
+  <si>
+    <t>Business identifiers assigned to this condition by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>The clinical status of the condition.</t>
+  </si>
+  <si>
+    <t>The verification status to support the clinical status of the condition.</t>
+  </si>
+  <si>
+    <t>A category assigned to the condition.</t>
+  </si>
+  <si>
+    <t>A subjective assessment of the severity of the condition as evaluated by the clinician.</t>
+  </si>
+  <si>
+    <t>Identification of the condition, problem or diagnosis.</t>
+  </si>
+  <si>
+    <t>The anatomical location where this condition manifests itself.</t>
+  </si>
+  <si>
+    <t>Indicates the patient or group who the condition record is associated with.</t>
+  </si>
+  <si>
+    <t>The Encounter during which this Condition was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>Estimated or actual date or date-time  the condition began, in the opinion of the clinician.</t>
+  </si>
+  <si>
+    <t>The date or estimated date that the condition resolved or went into remission. This is called "abatement" because of the many overloaded connotations associated with "remission" or "resolution" - Conditions are never really resolved, but they can abate.</t>
+  </si>
+  <si>
+    <t>The recordedDate represents when this particular Condition record was created in the system, which is often a system-generated date.</t>
+  </si>
+  <si>
+    <t>Clinical stage or grade of a condition. May include formal severity assessments.</t>
+  </si>
+  <si>
+    <t>Supporting evidence / manifestations that are the basis of the Condition's verification status, such as evidence that confirmed or refuted the condition.</t>
+  </si>
+  <si>
+    <t>Additional information about the Condition. This is a general notes/comments entry  for description of the Condition, its diagnosis and prognosis.</t>
   </si>
 </sst>
 </file>
@@ -618,15 +729,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -634,11 +751,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -653,6 +785,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -993,8 +1129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39D3D81C-C471-49C1-A457-F0CEAE798989}">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,6 +1273,9 @@
       <c r="G6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>181</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>175</v>
       </c>
@@ -1157,6 +1296,9 @@
       <c r="G7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>175</v>
       </c>
@@ -1197,6 +1339,9 @@
       <c r="G9" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H9" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>175</v>
       </c>
@@ -1217,6 +1362,9 @@
       <c r="G10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>185</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>175</v>
       </c>
@@ -1257,11 +1405,14 @@
       <c r="G12" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H12" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>0</v>
       </c>
@@ -1279,7 +1430,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
@@ -1292,6 +1443,9 @@
       </c>
       <c r="G14" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>175</v>
@@ -1313,6 +1467,9 @@
       <c r="G15" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H15" s="7" t="s">
+        <v>187</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>175</v>
       </c>
@@ -1333,6 +1490,9 @@
       <c r="G16" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H16" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>175</v>
       </c>
@@ -1353,6 +1513,9 @@
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H17" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>175</v>
       </c>
@@ -1373,6 +1536,9 @@
       <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H18" s="7" t="s">
+        <v>191</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>175</v>
       </c>
@@ -1391,6 +1557,9 @@
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H19" s="5" t="s">
+        <v>190</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>175</v>
       </c>
@@ -1481,6 +1650,7 @@
       <c r="G24" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="H24" s="7"/>
       <c r="I24" s="1" t="s">
         <v>175</v>
       </c>
@@ -1555,14 +1725,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:9" ht="33.75" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>49</v>
       </c>
       <c r="D29" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="F29" s="1" t="s">
         <v>178</v>
       </c>
@@ -1577,7 +1749,9 @@
       <c r="D30" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="F30" s="1" t="s">
         <v>178</v>
       </c>
@@ -1595,7 +1769,9 @@
       <c r="D31" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>178</v>
       </c>
@@ -1613,7 +1789,9 @@
       <c r="D32" t="s">
         <v>153</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="F32" s="1" t="s">
         <v>178</v>
       </c>
@@ -1624,14 +1802,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>49</v>
       </c>
       <c r="D33" t="s">
         <v>154</v>
       </c>
-      <c r="E33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="F33" s="1" t="s">
         <v>178</v>
       </c>
@@ -1649,7 +1829,9 @@
       <c r="D34" t="s">
         <v>155</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="F34" s="1" t="s">
         <v>178</v>
       </c>
@@ -1667,7 +1849,9 @@
       <c r="D35" t="s">
         <v>156</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="F35" s="1" t="s">
         <v>178</v>
       </c>
@@ -1682,25 +1866,32 @@
       <c r="D36" t="s">
         <v>157</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="F36" s="1" t="s">
         <v>178</v>
       </c>
       <c r="G36" t="s">
         <v>1</v>
       </c>
+      <c r="H36" s="5" t="s">
+        <v>183</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>49</v>
       </c>
       <c r="D37" t="s">
         <v>125</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="F37" s="1" t="s">
         <v>178</v>
       </c>
@@ -1711,14 +1902,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>49</v>
       </c>
       <c r="D38" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>210</v>
+      </c>
       <c r="F38" s="1" t="s">
         <v>178</v>
       </c>
@@ -1729,14 +1922,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" ht="45" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>211</v>
+      </c>
       <c r="F39" s="1" t="s">
         <v>178</v>
       </c>
@@ -1744,14 +1939,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="D40" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>212</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>178</v>
       </c>
@@ -1807,14 +2004,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>49</v>
       </c>
       <c r="D44" t="s">
         <v>164</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>213</v>
+      </c>
       <c r="F44" s="1" t="s">
         <v>178</v>
       </c>
@@ -1870,14 +2069,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>49</v>
       </c>
       <c r="D48" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>214</v>
+      </c>
       <c r="F48" s="1" t="s">
         <v>178</v>
       </c>
@@ -1885,14 +2086,16 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>49</v>
       </c>
       <c r="D49" t="s">
         <v>136</v>
       </c>
-      <c r="E49" s="3"/>
+      <c r="E49" s="3" t="s">
+        <v>215</v>
+      </c>
       <c r="F49" s="1" t="s">
         <v>178</v>
       </c>
@@ -1987,6 +2190,9 @@
       <c r="G54" t="s">
         <v>59</v>
       </c>
+      <c r="H54" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="I54" s="1" t="s">
         <v>175</v>
       </c>
@@ -2005,6 +2211,9 @@
       <c r="G55" t="s">
         <v>59</v>
       </c>
+      <c r="H55" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="I55" s="1" t="s">
         <v>175</v>
       </c>
@@ -2025,6 +2234,9 @@
       <c r="G56" t="s">
         <v>60</v>
       </c>
+      <c r="H56" s="7" t="s">
+        <v>197</v>
+      </c>
       <c r="I56" s="1" t="s">
         <v>175</v>
       </c>
@@ -2045,6 +2257,9 @@
       <c r="G57" t="s">
         <v>61</v>
       </c>
+      <c r="H57" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="I57" s="1" t="s">
         <v>175</v>
       </c>
@@ -2065,6 +2280,9 @@
       <c r="G58" t="s">
         <v>62</v>
       </c>
+      <c r="H58" s="7" t="s">
+        <v>199</v>
+      </c>
       <c r="I58" s="1" t="s">
         <v>175</v>
       </c>
@@ -2085,6 +2303,9 @@
       <c r="G59" t="s">
         <v>1</v>
       </c>
+      <c r="H59" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="I59" s="1" t="s">
         <v>175</v>
       </c>
@@ -2142,6 +2363,9 @@
       <c r="G62" t="s">
         <v>64</v>
       </c>
+      <c r="H62" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="I62" s="1" t="s">
         <v>175</v>
       </c>
@@ -2162,6 +2386,9 @@
       <c r="G63" t="s">
         <v>65</v>
       </c>
+      <c r="H63" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="I63" s="1" t="s">
         <v>175</v>
       </c>
@@ -2180,11 +2407,14 @@
       <c r="G64" t="s">
         <v>65</v>
       </c>
+      <c r="H64" s="7" t="s">
+        <v>194</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>76</v>
       </c>
@@ -2204,7 +2434,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>76</v>
       </c>
@@ -2220,6 +2450,9 @@
       <c r="G66" t="s">
         <v>67</v>
       </c>
+      <c r="H66" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="I66" s="1" t="s">
         <v>175</v>
       </c>
@@ -2240,6 +2473,9 @@
       <c r="G67" t="s">
         <v>68</v>
       </c>
+      <c r="H67" s="7" t="s">
+        <v>196</v>
+      </c>
       <c r="I67" s="1" t="s">
         <v>175</v>
       </c>
@@ -2260,6 +2496,9 @@
       <c r="G68" t="s">
         <v>69</v>
       </c>
+      <c r="H68" s="7" t="s">
+        <v>200</v>
+      </c>
       <c r="I68" s="1" t="s">
         <v>175</v>
       </c>
@@ -2330,6 +2569,9 @@
       <c r="G72" t="s">
         <v>71</v>
       </c>
+      <c r="H72" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="I72" s="1" t="s">
         <v>175</v>
       </c>
@@ -2404,6 +2646,9 @@
       <c r="G76" t="s">
         <v>73</v>
       </c>
+      <c r="H76" s="5" t="s">
+        <v>179</v>
+      </c>
       <c r="I76" s="1" t="s">
         <v>175</v>
       </c>
@@ -2471,6 +2716,9 @@
       <c r="G80" t="s">
         <v>74</v>
       </c>
+      <c r="H80" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="I80" s="1" t="s">
         <v>175</v>
       </c>
@@ -2506,6 +2754,9 @@
       </c>
       <c r="G82" t="s">
         <v>75</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>179</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>175</v>
